--- a/app/Licenciatura_em_Informatica.xlsx
+++ b/app/Licenciatura_em_Informatica.xlsx
@@ -29,19 +29,18 @@
     <sheet name="20153162" sheetId="19" r:id="rId22"/>
     <sheet name="20153165" sheetId="20" r:id="rId23"/>
     <sheet name="20153168" sheetId="21" r:id="rId24"/>
-    <sheet name="20154468" sheetId="22" r:id="rId25"/>
-    <sheet name="20153174" sheetId="23" r:id="rId26"/>
-    <sheet name="20153178" sheetId="24" r:id="rId27"/>
-    <sheet name="20153177" sheetId="25" r:id="rId28"/>
-    <sheet name="20153171" sheetId="26" r:id="rId29"/>
-    <sheet name="20153157" sheetId="27" r:id="rId30"/>
-    <sheet name="20153176" sheetId="28" r:id="rId31"/>
-    <sheet name="20153180" sheetId="29" r:id="rId32"/>
-    <sheet name="20153182" sheetId="30" r:id="rId33"/>
-    <sheet name="20153173" sheetId="31" r:id="rId34"/>
-    <sheet name="20153158" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20153174" sheetId="22" r:id="rId25"/>
+    <sheet name="20153178" sheetId="23" r:id="rId26"/>
+    <sheet name="20153177" sheetId="24" r:id="rId27"/>
+    <sheet name="20153171" sheetId="25" r:id="rId28"/>
+    <sheet name="20153157" sheetId="26" r:id="rId29"/>
+    <sheet name="20153176" sheetId="27" r:id="rId30"/>
+    <sheet name="20153180" sheetId="28" r:id="rId31"/>
+    <sheet name="20153182" sheetId="29" r:id="rId32"/>
+    <sheet name="20153173" sheetId="30" r:id="rId33"/>
+    <sheet name="20153158" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Lidia Juliao Zitha</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -237,9 +233,6 @@
     <t>Elizete Fernando Mulhanga</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090602880337I</t>
   </si>
   <si>
@@ -264,9 +257,6 @@
     <t>Rita Jaime Zavale</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110100383750P</t>
   </si>
   <si>
@@ -291,9 +281,6 @@
     <t>Anabela Soares</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>110101199863I</t>
   </si>
   <si>
@@ -318,9 +305,6 @@
     <t>Maria Angelica Souto</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110100779333S</t>
   </si>
   <si>
@@ -345,9 +329,6 @@
     <t>Alberto Faife Tangune</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101819541P</t>
   </si>
   <si>
@@ -447,9 +428,6 @@
     <t>Olga Alberto Soto</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110104690500B</t>
   </si>
   <si>
@@ -471,9 +449,6 @@
     <t>Carolina Jacob</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110504028136I</t>
   </si>
   <si>
@@ -648,12 +623,6 @@
     <t>+258846387256</t>
   </si>
   <si>
-    <t>Huo</t>
-  </si>
-  <si>
-    <t>Leonardo de Jesus</t>
-  </si>
-  <si>
     <t>Hele</t>
   </si>
   <si>
@@ -667,9 +636,6 @@
   </si>
   <si>
     <t xml:space="preserve">VitÓria Rogerio </t>
-  </si>
-  <si>
-    <t>Cidade de Inhambane</t>
   </si>
   <si>
     <t>080102459872I</t>
@@ -2103,7 +2069,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2119,7 +2085,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2135,7 +2101,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2151,7 +2117,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2167,7 +2133,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2182,9 +2148,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2192,7 +2156,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2203,7 +2167,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2212,7 +2176,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2224,7 +2188,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2232,7 +2196,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2328,7 +2292,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2371,7 +2335,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2698,7 +2662,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2714,7 +2678,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2905,7 +2869,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3271,7 +3235,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3287,7 +3251,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3303,7 +3267,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3319,7 +3283,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3335,7 +3299,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3350,9 +3314,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3360,7 +3322,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3371,7 +3333,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3380,7 +3342,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3392,7 +3354,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3400,7 +3362,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3496,7 +3458,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3539,7 +3501,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3866,7 +3828,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3882,7 +3844,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3898,7 +3860,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3914,7 +3876,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3930,7 +3892,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3945,9 +3907,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3955,7 +3915,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3966,7 +3926,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3975,7 +3935,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3987,7 +3947,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3995,7 +3955,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4091,7 +4051,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4134,7 +4094,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4461,7 +4421,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4477,7 +4437,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4493,7 +4453,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4509,7 +4469,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4525,7 +4485,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4540,9 +4500,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4550,7 +4508,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4561,7 +4519,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4570,7 +4528,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4582,7 +4540,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4590,7 +4548,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4686,7 +4644,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4729,7 +4687,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5056,7 +5014,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5072,7 +5030,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5088,7 +5046,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5104,7 +5062,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5120,7 +5078,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5135,9 +5093,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5145,7 +5101,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5156,7 +5112,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5165,7 +5121,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5177,7 +5133,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5185,7 +5141,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5281,7 +5237,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5324,7 +5280,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5651,7 +5607,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5667,7 +5623,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5683,7 +5639,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5699,7 +5655,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5715,7 +5671,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5730,9 +5686,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5740,7 +5694,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5751,7 +5705,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5760,7 +5714,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5772,7 +5726,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5780,7 +5734,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5876,7 +5830,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5919,7 +5873,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6246,7 +6200,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6262,7 +6216,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6278,7 +6232,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6294,7 +6248,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6310,7 +6264,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6325,9 +6279,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6335,7 +6287,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6346,7 +6298,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6355,7 +6307,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6367,7 +6319,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6375,7 +6327,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6471,7 +6423,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6514,7 +6466,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6841,7 +6793,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6857,7 +6809,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6873,7 +6825,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6889,7 +6841,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6905,7 +6857,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6920,9 +6872,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6930,7 +6880,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6941,7 +6891,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6950,7 +6900,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6962,7 +6912,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6970,7 +6920,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7066,7 +7016,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7109,7 +7059,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7436,7 +7386,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7452,7 +7402,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7468,7 +7418,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7484,7 +7434,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7500,7 +7450,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7515,9 +7465,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7525,7 +7473,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7536,7 +7484,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7545,7 +7493,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7557,7 +7505,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7565,7 +7513,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7661,7 +7609,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7704,7 +7652,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8110,9 +8058,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8120,7 +8066,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8131,7 +8077,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8140,7 +8086,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8152,7 +8098,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8160,7 +8106,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8256,7 +8202,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8299,7 +8245,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8626,7 +8572,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8642,7 +8588,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8658,7 +8604,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8674,7 +8620,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8690,7 +8636,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8705,9 +8651,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8715,7 +8659,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8726,7 +8670,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8735,7 +8679,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8747,7 +8691,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8755,7 +8699,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8851,7 +8795,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8894,7 +8838,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9221,7 +9165,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9237,7 +9181,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9253,7 +9197,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9269,7 +9213,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9285,7 +9229,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9300,9 +9244,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9310,7 +9252,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9321,7 +9263,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9330,7 +9272,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9342,7 +9284,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9350,7 +9292,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9446,7 +9388,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9489,7 +9431,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9740,7 +9682,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9790,7 +9734,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154468</v>
+        <v>20153174</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9814,7 +9758,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9830,7 +9774,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9845,7 +9789,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9859,7 +9805,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9873,7 +9821,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9894,7 +9844,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9903,14 +9855,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9920,13 +9876,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10021,7 +9981,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10047,7 +10007,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10061,7 +10023,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10363,7 +10327,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153174</v>
+        <v>20153178</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10387,7 +10351,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10403,7 +10367,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10419,7 +10383,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10435,7 +10399,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10451,7 +10415,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10466,9 +10430,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10476,7 +10438,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10487,7 +10449,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10496,7 +10458,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10508,7 +10470,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10516,7 +10478,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10612,7 +10574,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10639,7 +10601,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10655,7 +10617,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10958,7 +10920,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153178</v>
+        <v>20153177</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10982,7 +10944,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10998,7 +10960,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11014,7 +10976,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11030,7 +10992,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11046,7 +11008,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11061,9 +11023,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11071,7 +11031,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11082,7 +11042,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11091,7 +11051,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11103,7 +11063,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11111,7 +11071,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11207,7 +11167,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11234,7 +11194,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11250,7 +11210,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11553,7 +11513,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153177</v>
+        <v>20153171</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11577,7 +11537,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11593,7 +11553,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11609,7 +11569,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11625,7 +11585,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11641,7 +11601,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11656,9 +11616,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11666,7 +11624,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11677,7 +11635,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11686,7 +11644,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11698,7 +11656,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11706,7 +11664,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11802,7 +11760,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11829,7 +11787,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11845,7 +11803,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12148,7 +12106,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153171</v>
+        <v>20153157</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12172,7 +12130,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12188,7 +12146,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12203,9 +12161,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12219,9 +12175,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>227</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12235,9 +12189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12251,18 +12203,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12271,18 +12219,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12292,17 +12236,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>229</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12397,7 +12337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12423,9 +12363,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -12439,9 +12377,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>231</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12743,7 +12679,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153157</v>
+        <v>20153176</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12767,7 +12703,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12783,7 +12719,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12798,7 +12734,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12812,7 +12750,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12826,7 +12766,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>227</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12847,7 +12789,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12856,14 +12800,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12873,13 +12821,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -12974,7 +12926,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13000,7 +12952,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13014,7 +12968,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13316,7 +13272,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153176</v>
+        <v>20153180</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13340,7 +13296,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13356,7 +13312,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13372,7 +13328,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13388,7 +13344,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13404,7 +13360,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13419,9 +13375,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13429,7 +13383,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13440,7 +13394,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13449,7 +13403,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13461,7 +13415,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13469,7 +13423,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13565,7 +13519,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13592,7 +13546,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13608,7 +13562,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13911,7 +13865,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153180</v>
+        <v>20153182</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13935,7 +13889,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13951,7 +13905,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13967,7 +13921,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13983,7 +13937,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13999,7 +13953,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14014,9 +13968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14024,7 +13976,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14035,7 +13987,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14044,7 +13996,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14056,7 +14008,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14064,7 +14016,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14160,7 +14112,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14187,7 +14139,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14203,7 +14155,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14530,7 +14482,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14546,7 +14498,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14562,7 +14514,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14578,7 +14530,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14594,7 +14546,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14609,9 +14561,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14619,7 +14569,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14630,7 +14580,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14639,7 +14589,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14651,7 +14601,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14659,7 +14609,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14755,7 +14705,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14798,7 +14748,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15101,7 +15051,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153182</v>
+        <v>20153173</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15125,7 +15075,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15141,7 +15091,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15157,7 +15107,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15173,7 +15123,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15189,7 +15139,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15204,9 +15154,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15214,7 +15162,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15225,7 +15173,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15234,7 +15182,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15246,7 +15194,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15254,7 +15202,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15350,7 +15298,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15393,7 +15341,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15696,7 +15644,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153173</v>
+        <v>20153158</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15720,7 +15668,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15736,7 +15684,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15751,9 +15699,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>258</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15767,9 +15713,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15783,9 +15727,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15799,18 +15741,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15819,18 +15757,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15840,17 +15774,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15945,7 +15875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15971,9 +15901,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15987,9 +15915,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -16191,579 +16117,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153158</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16787,7 +16140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16944,7 +16297,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16960,7 +16313,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16976,7 +16329,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16992,7 +16345,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17008,7 +16361,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17023,9 +16376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17033,7 +16384,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17044,7 +16395,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17053,7 +16404,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17065,7 +16416,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17073,7 +16424,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17169,7 +16520,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17212,7 +16563,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17539,7 +16890,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17555,7 +16906,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17571,7 +16922,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17587,7 +16938,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17603,7 +16954,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17618,9 +16969,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17628,7 +16977,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17639,7 +16988,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17648,7 +16997,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17660,7 +17009,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17668,7 +17017,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17764,7 +17113,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17807,7 +17156,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18134,7 +17483,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18150,7 +17499,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18166,7 +17515,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18182,7 +17531,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18198,7 +17547,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18213,9 +17562,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18223,7 +17570,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18234,7 +17581,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18243,7 +17590,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18255,7 +17602,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18263,7 +17610,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18359,7 +17706,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18402,7 +17749,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18729,7 +18076,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18745,7 +18092,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18761,7 +18108,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18777,7 +18124,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18793,7 +18140,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18808,9 +18155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18818,7 +18163,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18829,7 +18174,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18838,7 +18183,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18850,7 +18195,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18858,7 +18203,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18954,7 +18299,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18997,7 +18342,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19324,7 +18669,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19340,7 +18685,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19356,7 +18701,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19372,7 +18717,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19388,7 +18733,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19403,9 +18748,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19413,7 +18756,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19424,7 +18767,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19433,7 +18776,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19445,7 +18788,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19453,7 +18796,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19549,7 +18892,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19592,7 +18935,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19919,7 +19262,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19935,7 +19278,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19951,7 +19294,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19967,7 +19310,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19983,7 +19326,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19998,9 +19341,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20008,7 +19349,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20019,7 +19360,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20028,7 +19369,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20040,7 +19381,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20048,7 +19389,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20144,7 +19485,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20187,7 +19528,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
